--- a/data/input/absenteeism_data_9.xlsx
+++ b/data/input/absenteeism_data_9.xlsx
@@ -476,103 +476,103 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>93408</v>
+        <v>6152</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vitória Fogaça</t>
+          <t>Alice Almeida</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45099</v>
+        <v>45100</v>
       </c>
       <c r="G2" t="n">
-        <v>7434.04</v>
+        <v>6483.34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>32468</v>
+        <v>10136</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ana Vitória Mendes</t>
+          <t>Giovanna Campos</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45088</v>
+        <v>45097</v>
       </c>
       <c r="G3" t="n">
-        <v>11801.92</v>
+        <v>3358.98</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>64347</v>
+        <v>62800</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pietra Moura</t>
+          <t>Stella Cardoso</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45082</v>
+        <v>45105</v>
       </c>
       <c r="G4" t="n">
-        <v>10278.48</v>
+        <v>6233.7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>29706</v>
+        <v>20169</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sra. Larissa Duarte</t>
+          <t>Maria Vitória Melo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,114 +581,114 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45092</v>
+        <v>45083</v>
       </c>
       <c r="G5" t="n">
-        <v>12407</v>
+        <v>3966.75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>19576</v>
+        <v>15289</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bárbara Aragão</t>
+          <t>Sra. Alícia Martins</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45092</v>
+        <v>45078</v>
       </c>
       <c r="G6" t="n">
-        <v>5675.16</v>
+        <v>5436.28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3575</v>
+        <v>29450</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dra. Maria Sophia da Cunha</t>
+          <t>Ana Moreira</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45080</v>
+        <v>45098</v>
       </c>
       <c r="G7" t="n">
-        <v>2737.1</v>
+        <v>9811.67</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>91779</v>
+        <v>53736</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Nicole Cavalcanti</t>
+          <t>Ana Julia da Luz</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45095</v>
+        <v>45102</v>
       </c>
       <c r="G8" t="n">
-        <v>10074.76</v>
+        <v>10492.33</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>14820</v>
+        <v>53514</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Olivia Fogaça</t>
+          <t>Fernando Viana</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -697,71 +697,71 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45102</v>
+        <v>45082</v>
       </c>
       <c r="G9" t="n">
-        <v>5579.41</v>
+        <v>7469.12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>18203</v>
+        <v>18920</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ana Luiza Moura</t>
+          <t>Laís Moura</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45082</v>
+        <v>45091</v>
       </c>
       <c r="G10" t="n">
-        <v>8022.27</v>
+        <v>7297.89</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>77381</v>
+        <v>96405</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sra. Alícia Cardoso</t>
+          <t>Lucas Gabriel Novaes</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45098</v>
+        <v>45086</v>
       </c>
       <c r="G11" t="n">
-        <v>7333.98</v>
+        <v>7604.12</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_9.xlsx
+++ b/data/input/absenteeism_data_9.xlsx
@@ -476,45 +476,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6152</v>
+        <v>27412</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alice Almeida</t>
+          <t>Leandro Fogaça</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45100</v>
+        <v>45103</v>
       </c>
       <c r="G2" t="n">
-        <v>6483.34</v>
+        <v>6422.41</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10136</v>
+        <v>21823</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Giovanna Campos</t>
+          <t>Isabella Moreira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,143 +523,143 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45097</v>
+        <v>45104</v>
       </c>
       <c r="G3" t="n">
-        <v>3358.98</v>
+        <v>5147.15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>62800</v>
+        <v>49942</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Stella Cardoso</t>
+          <t>Luiz Gustavo da Mota</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45105</v>
+        <v>45088</v>
       </c>
       <c r="G4" t="n">
-        <v>6233.7</v>
+        <v>4666.09</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>20169</v>
+        <v>58369</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Maria Vitória Melo</t>
+          <t>Clara da Paz</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45083</v>
+        <v>45089</v>
       </c>
       <c r="G5" t="n">
-        <v>3966.75</v>
+        <v>11432.31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>15289</v>
+        <v>42179</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sra. Alícia Martins</t>
+          <t>Yago Pinto</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45078</v>
+        <v>45100</v>
       </c>
       <c r="G6" t="n">
-        <v>5436.28</v>
+        <v>9183.559999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>29450</v>
+        <v>62775</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ana Moreira</t>
+          <t>Dra. Júlia das Neves</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45098</v>
+        <v>45096</v>
       </c>
       <c r="G7" t="n">
-        <v>9811.67</v>
+        <v>8292.52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>53736</v>
+        <v>41823</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ana Julia da Luz</t>
+          <t>João Almeida</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,100 +668,100 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45102</v>
+        <v>45098</v>
       </c>
       <c r="G8" t="n">
-        <v>10492.33</v>
+        <v>10356.83</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>53514</v>
+        <v>39820</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Fernando Viana</t>
+          <t>Luiz Otávio Peixoto</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45082</v>
+        <v>45103</v>
       </c>
       <c r="G9" t="n">
-        <v>7469.12</v>
+        <v>7314.79</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>18920</v>
+        <v>37886</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Laís Moura</t>
+          <t>Ian Melo</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45091</v>
+        <v>45086</v>
       </c>
       <c r="G10" t="n">
-        <v>7297.89</v>
+        <v>10114.09</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>96405</v>
+        <v>41426</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Lucas Gabriel Novaes</t>
+          <t>Arthur Caldeira</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45086</v>
+        <v>45105</v>
       </c>
       <c r="G11" t="n">
-        <v>7604.12</v>
+        <v>8149.93</v>
       </c>
     </row>
   </sheetData>
